--- a/Excel-XLSX/UN-SSD.xlsx
+++ b/Excel-XLSX/UN-SSD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>0d9VBv</t>
+    <t>d3Ic2U</t>
   </si>
   <si>
     <t>2015</t>
@@ -204,63 +204,63 @@
     <t>2023</t>
   </si>
   <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>537</t>
+    <t>508</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>1560</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2040</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Central African Rep.</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>CAF</t>
-  </si>
-  <si>
-    <t>1025</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>1560</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>1634</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2040</t>
-  </si>
-  <si>
     <t>1882</t>
   </si>
   <si>
@@ -306,7 +306,7 @@
     <t>22</t>
   </si>
   <si>
-    <t>2328</t>
+    <t>2424</t>
   </si>
   <si>
     <t>23</t>
@@ -429,7 +429,10 @@
     <t>213</t>
   </si>
   <si>
-    <t>10895</t>
+    <t>12265</t>
+  </si>
+  <si>
+    <t>46</t>
   </si>
   <si>
     <t>42</t>
@@ -459,9 +462,6 @@
     <t>157</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
     <t>47</t>
   </si>
   <si>
@@ -516,10 +516,10 @@
     <t>53</t>
   </si>
   <si>
-    <t>1622</t>
-  </si>
-  <si>
-    <t>1109</t>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>2338</t>
   </si>
   <si>
     <t>54</t>
@@ -630,10 +630,10 @@
     <t>66</t>
   </si>
   <si>
-    <t>4329</t>
-  </si>
-  <si>
-    <t>256</t>
+    <t>4611</t>
+  </si>
+  <si>
+    <t>1245</t>
   </si>
   <si>
     <t>67</t>
@@ -651,6 +651,33 @@
     <t>68</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>NGR</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
     <t>161</t>
   </si>
   <si>
@@ -660,10 +687,10 @@
     <t>RWA</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
   </si>
   <si>
     <t>172</t>
@@ -675,24 +702,18 @@
     <t>SOM</t>
   </si>
   <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>140</t>
   </si>
   <si>
-    <t>72</t>
+    <t>75</t>
   </si>
   <si>
     <t>160</t>
   </si>
   <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
     <t>76</t>
   </si>
   <si>
@@ -708,6 +729,12 @@
     <t>80</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
     <t>177</t>
   </si>
   <si>
@@ -723,61 +750,64 @@
     <t>76845</t>
   </si>
   <si>
-    <t>81</t>
+    <t>84</t>
   </si>
   <si>
     <t>176834</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
     <t>208130</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>225727</t>
   </si>
   <si>
-    <t>84</t>
+    <t>87</t>
   </si>
   <si>
     <t>241002</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>241510</t>
   </si>
   <si>
-    <t>86</t>
+    <t>89</t>
   </si>
   <si>
     <t>261983</t>
   </si>
   <si>
-    <t>87</t>
+    <t>90</t>
   </si>
   <si>
     <t>269924</t>
   </si>
   <si>
-    <t>88</t>
+    <t>91</t>
   </si>
   <si>
     <t>275563</t>
   </si>
   <si>
-    <t>89</t>
+    <t>92</t>
   </si>
   <si>
     <t>291249</t>
   </si>
   <si>
-    <t>90</t>
+    <t>93</t>
   </si>
   <si>
     <t>308174</t>
   </si>
   <si>
-    <t>91</t>
+    <t>94</t>
   </si>
   <si>
     <t>290740</t>
@@ -786,52 +816,46 @@
     <t>922</t>
   </si>
   <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>295276</t>
-  </si>
-  <si>
-    <t>654</t>
+    <t>95</t>
+  </si>
+  <si>
+    <t>359581</t>
   </si>
   <si>
     <t>14655</t>
   </si>
   <si>
-    <t>93</t>
+    <t>96</t>
   </si>
   <si>
     <t>560161</t>
   </si>
   <si>
-    <t>94</t>
+    <t>97</t>
   </si>
   <si>
     <t>345670</t>
   </si>
   <si>
-    <t>95</t>
+    <t>98</t>
   </si>
   <si>
     <t>331097</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>1645392</t>
   </si>
   <si>
     <t>200055</t>
   </si>
   <si>
-    <t>97</t>
+    <t>100</t>
   </si>
   <si>
     <t>1790427</t>
   </si>
   <si>
-    <t>98</t>
+    <t>101</t>
   </si>
   <si>
     <t>1853924</t>
@@ -840,6 +864,9 @@
     <t>752261</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
     <t>1903953</t>
   </si>
   <si>
@@ -849,13 +876,10 @@
     <t>10000</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>1878154</t>
   </si>
   <si>
-    <t>101</t>
+    <t>104</t>
   </si>
   <si>
     <t>1665815</t>
@@ -864,7 +888,7 @@
     <t>276463</t>
   </si>
   <si>
-    <t>102</t>
+    <t>105</t>
   </si>
   <si>
     <t>1600254</t>
@@ -879,7 +903,7 @@
     <t>2017236</t>
   </si>
   <si>
-    <t>104</t>
+    <t>107</t>
   </si>
   <si>
     <t>1474679</t>
@@ -888,16 +912,16 @@
     <t>371594</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>1490064</t>
+    <t>108</t>
+  </si>
+  <si>
+    <t>1236672</t>
   </si>
   <si>
     <t>454831</t>
   </si>
   <si>
-    <t>106</t>
+    <t>109</t>
   </si>
   <si>
     <t>185</t>
@@ -909,7 +933,7 @@
     <t>SYR</t>
   </si>
   <si>
-    <t>107</t>
+    <t>110</t>
   </si>
   <si>
     <t>199</t>
@@ -921,10 +945,13 @@
     <t>UGA</t>
   </si>
   <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
+    <t>111</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>112</t>
   </si>
   <si>
     <t>216</t>
@@ -939,19 +966,16 @@
     <t>XXA</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
   </si>
   <si>
     <t>10500</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>1300</t>
+    <t>115</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1360,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1476,8 +1500,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1544,8 +1568,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1612,8 +1636,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1680,8 +1704,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1748,8 +1772,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1816,8 +1840,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -1884,8 +1908,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -2015,7 +2039,7 @@
         <v>31</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>33</v>
@@ -2035,38 +2059,38 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="O11" s="2" t="s">
         <v>31</v>
       </c>
@@ -2088,8 +2112,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -2103,37 +2127,37 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>37</v>
@@ -2156,8 +2180,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -2171,37 +2195,37 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>37</v>
@@ -2224,8 +2248,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -2239,37 +2263,37 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>37</v>
@@ -2292,8 +2316,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -2307,22 +2331,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -2360,8 +2384,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -2381,16 +2405,16 @@
         <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -2428,8 +2452,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -2449,16 +2473,16 @@
         <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2496,8 +2520,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -2517,16 +2541,16 @@
         <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2564,8 +2588,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -2585,16 +2609,16 @@
         <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2632,8 +2656,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -2653,16 +2677,16 @@
         <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2700,8 +2724,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -2721,16 +2745,16 @@
         <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2768,8 +2792,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -2789,16 +2813,16 @@
         <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2857,16 +2881,16 @@
         <v>61</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2972,8 +2996,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -3040,8 +3064,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -3108,8 +3132,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -3262,7 +3286,7 @@
         <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>106</v>
@@ -3312,8 +3336,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -3330,7 +3354,7 @@
         <v>110</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>111</v>
@@ -3380,8 +3404,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -3398,7 +3422,7 @@
         <v>115</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>111</v>
@@ -3448,8 +3472,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -3466,7 +3490,7 @@
         <v>117</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>111</v>
@@ -3516,8 +3540,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -3534,7 +3558,7 @@
         <v>119</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>111</v>
@@ -3584,8 +3608,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -3652,8 +3676,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -3667,7 +3691,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>35</v>
@@ -3720,8 +3744,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -3788,8 +3812,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -3856,8 +3880,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -3924,8 +3948,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -3992,8 +4016,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -4060,8 +4084,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -4176,7 +4200,7 @@
         <v>137</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>31</v>
@@ -4191,7 +4215,7 @@
         <v>31</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>33</v>
@@ -4211,22 +4235,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4264,8 +4288,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -4279,22 +4303,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4332,8 +4356,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -4347,22 +4371,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4400,8 +4424,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -4415,22 +4439,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4445,10 +4469,10 @@
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>31</v>
@@ -4468,8 +4492,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -4483,22 +4507,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4536,8 +4560,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48">
@@ -4557,16 +4581,16 @@
         <v>39</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4604,8 +4628,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49">
@@ -4625,16 +4649,16 @@
         <v>42</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4672,8 +4696,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -4693,16 +4717,16 @@
         <v>44</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4740,8 +4764,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -4761,16 +4785,16 @@
         <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4808,8 +4832,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52">
@@ -4829,16 +4853,16 @@
         <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4876,8 +4900,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53">
@@ -4897,16 +4921,16 @@
         <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4965,16 +4989,16 @@
         <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -5030,7 +5054,7 @@
         <v>168</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>169</v>
@@ -5080,8 +5104,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -5098,7 +5122,7 @@
         <v>45</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>169</v>
@@ -5128,7 +5152,7 @@
         <v>174</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>31</v>
@@ -5148,8 +5172,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -5163,10 +5187,10 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>169</v>
@@ -5216,8 +5240,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -5234,7 +5258,7 @@
         <v>176</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>169</v>
@@ -5284,8 +5308,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -5352,8 +5376,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
@@ -5420,8 +5444,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61">
@@ -5488,8 +5512,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -5556,8 +5580,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63">
@@ -5624,8 +5648,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64">
@@ -5692,8 +5716,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -5760,8 +5784,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66">
@@ -5891,7 +5915,7 @@
         <v>31</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="U67" s="1" t="s">
         <v>33</v>
@@ -5964,8 +5988,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -5982,19 +6006,19 @@
         <v>210</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -6032,8 +6056,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -6047,22 +6071,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="I70" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -6080,7 +6104,7 @@
         <v>31</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>31</v>
@@ -6095,7 +6119,7 @@
         <v>31</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="U70" s="1" t="s">
         <v>33</v>
@@ -6118,7 +6142,7 @@
         <v>215</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>216</v>
@@ -6130,7 +6154,7 @@
         <v>218</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -6145,10 +6169,10 @@
         <v>30</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>31</v>
@@ -6168,8 +6192,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72">
@@ -6186,19 +6210,19 @@
         <v>178</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6216,7 +6240,7 @@
         <v>31</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>31</v>
@@ -6236,8 +6260,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -6251,22 +6275,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="G73" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6281,10 +6305,10 @@
         <v>30</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>31</v>
@@ -6299,13 +6323,13 @@
         <v>31</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74">
@@ -6319,22 +6343,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6352,7 +6376,7 @@
         <v>31</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>31</v>
@@ -6372,8 +6396,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75">
@@ -6387,22 +6411,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6420,7 +6444,7 @@
         <v>31</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>31</v>
@@ -6440,8 +6464,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76">
@@ -6455,22 +6479,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6485,10 +6509,10 @@
         <v>30</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>31</v>
@@ -6508,8 +6532,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77">
@@ -6523,22 +6547,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6556,7 +6580,7 @@
         <v>31</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>31</v>
@@ -6576,8 +6600,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -6591,22 +6615,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="H78" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6621,7 +6645,7 @@
         <v>30</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>115</v>
@@ -6644,8 +6668,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79">
@@ -6659,22 +6683,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="I79" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6692,7 +6716,7 @@
         <v>31</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>31</v>
@@ -6707,7 +6731,7 @@
         <v>31</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="U79" s="1" t="s">
         <v>33</v>
@@ -6727,22 +6751,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6757,10 +6781,10 @@
         <v>30</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>31</v>
@@ -6795,22 +6819,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6825,10 +6849,10 @@
         <v>30</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>31</v>
@@ -6848,8 +6872,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82">
@@ -6863,22 +6887,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6893,10 +6917,10 @@
         <v>30</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>236</v>
+        <v>31</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>31</v>
@@ -6911,13 +6935,13 @@
         <v>31</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83">
@@ -6931,22 +6955,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6961,10 +6985,10 @@
         <v>30</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="P83" s="2" t="s">
         <v>31</v>
@@ -6984,8 +7008,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84">
@@ -7002,19 +7026,19 @@
         <v>151</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -7029,10 +7053,10 @@
         <v>30</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>31</v>
@@ -7052,8 +7076,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="85">
@@ -7067,22 +7091,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="H85" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -7097,10 +7121,10 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>31</v>
@@ -7120,8 +7144,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86">
@@ -7138,19 +7162,19 @@
         <v>173</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -7165,10 +7189,10 @@
         <v>30</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>31</v>
@@ -7188,8 +7212,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="87">
@@ -7203,22 +7227,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7233,10 +7257,10 @@
         <v>30</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>31</v>
@@ -7256,8 +7280,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88">
@@ -7271,22 +7295,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7301,10 +7325,10 @@
         <v>30</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>31</v>
@@ -7324,8 +7348,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89">
@@ -7339,22 +7363,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7369,10 +7393,10 @@
         <v>30</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>31</v>
@@ -7392,8 +7416,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90">
@@ -7407,22 +7431,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7437,10 +7461,10 @@
         <v>30</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>31</v>
@@ -7460,8 +7484,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91">
@@ -7475,22 +7499,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7505,10 +7529,10 @@
         <v>30</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>31</v>
@@ -7528,8 +7552,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92">
@@ -7543,22 +7567,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7573,13 +7597,13 @@
         <v>30</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="Q92" s="2" t="s">
         <v>31</v>
@@ -7611,22 +7635,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7641,13 +7665,13 @@
         <v>30</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="Q93" s="2" t="s">
         <v>31</v>
@@ -7659,7 +7683,7 @@
         <v>31</v>
       </c>
       <c r="T93" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="U93" s="1" t="s">
         <v>33</v>
@@ -7679,22 +7703,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7709,16 +7733,16 @@
         <v>30</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>31</v>
+        <v>262</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="R94" s="2" t="s">
         <v>31</v>
@@ -7732,8 +7756,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95">
@@ -7747,22 +7771,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7777,16 +7801,16 @@
         <v>30</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="R95" s="2" t="s">
         <v>31</v>
@@ -7800,8 +7824,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -7815,22 +7839,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7845,16 +7869,16 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="R96" s="2" t="s">
         <v>31</v>
@@ -7868,8 +7892,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -7883,10 +7907,10 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>28</v>
@@ -7922,10 +7946,10 @@
         <v>31</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R97" s="2" t="s">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>31</v>
@@ -7936,8 +7960,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98">
@@ -7951,10 +7975,10 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>28</v>
@@ -7990,7 +8014,7 @@
         <v>31</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="R98" s="2" t="s">
         <v>31</v>
@@ -8004,8 +8028,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -8019,10 +8043,10 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>28</v>
@@ -8058,10 +8082,10 @@
         <v>31</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="R99" s="2" t="s">
-        <v>273</v>
+        <v>31</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>31</v>
@@ -8072,8 +8096,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="100">
@@ -8090,7 +8114,7 @@
         <v>207</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>28</v>
@@ -8126,22 +8150,22 @@
         <v>31</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R100" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="101">
@@ -8158,7 +8182,7 @@
         <v>277</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>28</v>
@@ -8203,13 +8227,13 @@
         <v>31</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="102">
@@ -8226,7 +8250,7 @@
         <v>279</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>28</v>
@@ -8271,13 +8295,13 @@
         <v>31</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103">
@@ -8294,7 +8318,7 @@
         <v>282</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>28</v>
@@ -8339,13 +8363,13 @@
         <v>31</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V103" s="2" t="s">
-        <v>285</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104">
@@ -8362,7 +8386,7 @@
         <v>49</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>28</v>
@@ -8407,13 +8431,13 @@
         <v>31</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V104" s="2" t="s">
-        <v>285</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105">
@@ -8430,7 +8454,7 @@
         <v>287</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>28</v>
@@ -8469,19 +8493,19 @@
         <v>288</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="S105" s="2" t="s">
         <v>31</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V105" s="2" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106">
@@ -8498,7 +8522,7 @@
         <v>290</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>28</v>
@@ -8537,7 +8561,7 @@
         <v>291</v>
       </c>
       <c r="R106" s="2" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
       <c r="S106" s="2" t="s">
         <v>31</v>
@@ -8549,7 +8573,7 @@
         <v>33</v>
       </c>
       <c r="V106" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107">
@@ -8563,61 +8587,61 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q107" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="R107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T107" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U107" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V107" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N107" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P107" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q107" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R107" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S107" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T107" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U107" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="108">
@@ -8631,22 +8655,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>298</v>
+        <v>28</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8670,7 +8694,7 @@
         <v>31</v>
       </c>
       <c r="Q108" s="2" t="s">
-        <v>31</v>
+        <v>296</v>
       </c>
       <c r="R108" s="2" t="s">
         <v>31</v>
@@ -8679,13 +8703,13 @@
         <v>31</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V108" s="2" t="s">
-        <v>31</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109">
@@ -8699,61 +8723,61 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>298</v>
+        <v>28</v>
       </c>
       <c r="G109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q109" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="R109" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V109" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O109" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="P109" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q109" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R109" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S109" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T109" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U109" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V109" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="110">
@@ -8767,22 +8791,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F110" s="2" t="s">
+      <c r="G110" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="I110" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -8797,7 +8821,7 @@
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>31</v>
@@ -8812,7 +8836,7 @@
         <v>31</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T110" s="2" t="s">
         <v>31</v>
@@ -8820,8 +8844,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="111">
@@ -8835,22 +8859,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="H111" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -8880,16 +8904,16 @@
         <v>31</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="112">
@@ -8903,22 +8927,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="I112" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -8936,7 +8960,7 @@
         <v>31</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="P112" s="2" t="s">
         <v>31</v>
@@ -8948,7 +8972,7 @@
         <v>31</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>309</v>
+        <v>31</v>
       </c>
       <c r="T112" s="2" t="s">
         <v>31</v>
@@ -8971,60 +8995,264 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q113" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R113" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S113" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="T113" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V113" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q114" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R114" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S114" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V114" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S115" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V115" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N113" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O113" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P113" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q113" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R113" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S113" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="T113" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U113" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V113" s="2" t="s">
+      <c r="F116" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R116" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S116" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="T116" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V116" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-SSD.xlsx
+++ b/Excel-XLSX/UN-SSD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>d3Ic2U</t>
+    <t>hk9Q2z</t>
   </si>
   <si>
     <t>2011</t>
@@ -1005,16 +1005,16 @@
     <t>118</t>
   </si>
   <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>1021</t>
+    <t>1064</t>
+  </si>
+  <si>
+    <t>534</t>
   </si>
   <si>
     <t>119</t>
   </si>
   <si>
-    <t>2664</t>
+    <t>2756</t>
   </si>
   <si>
     <t>120</t>
@@ -1032,28 +1032,34 @@
     <t>121</t>
   </si>
   <si>
+    <t>14075</t>
+  </si>
+  <si>
     <t>122</t>
   </si>
   <si>
-    <t>12513</t>
+    <t>3337</t>
+  </si>
+  <si>
+    <t>475</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2331</t>
+    <t>5824</t>
+  </si>
+  <si>
+    <t>1218</t>
   </si>
   <si>
     <t>124</t>
   </si>
   <si>
-    <t>4889</t>
-  </si>
-  <si>
-    <t>1394</t>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>LBY</t>
   </si>
   <si>
     <t>125</t>
@@ -1062,49 +1068,49 @@
     <t>126</t>
   </si>
   <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
     <t>127</t>
   </si>
   <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>LBY</t>
-  </si>
-  <si>
     <t>128</t>
   </si>
   <si>
     <t>129</t>
   </si>
   <si>
+    <t>944631</t>
+  </si>
+  <si>
+    <t>1327345</t>
+  </si>
+  <si>
     <t>130</t>
   </si>
   <si>
+    <t>18000</t>
+  </si>
+  <si>
     <t>131</t>
   </si>
   <si>
-    <t>1121084</t>
+    <t>487652</t>
   </si>
   <si>
     <t>132</t>
   </si>
   <si>
+    <t>340</t>
+  </si>
+  <si>
     <t>133</t>
-  </si>
-  <si>
-    <t>445939</t>
-  </si>
-  <si>
-    <t>3741</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>135</t>
   </si>
   <si>
     <t>211</t>
@@ -1498,7 +1504,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V136"/>
+  <dimension ref="A1:V134"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -9642,7 +9648,7 @@
         <v>332</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="P120" s="2" t="s">
         <v>33</v>
@@ -9707,10 +9713,10 @@
         <v>31</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P121" s="2" t="s">
         <v>33</v>
@@ -9751,16 +9757,16 @@
         <v>321</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>197</v>
+        <v>37</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>29</v>
@@ -9775,10 +9781,10 @@
         <v>31</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>48</v>
+        <v>338</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="P122" s="2" t="s">
         <v>33</v>
@@ -9813,22 +9819,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>29</v>
@@ -9843,10 +9849,10 @@
         <v>31</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>33</v>
@@ -9881,22 +9887,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>29</v>
@@ -9911,10 +9917,10 @@
         <v>31</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>33</v>
@@ -9949,22 +9955,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>43</v>
+        <v>347</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>43</v>
+        <v>347</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>29</v>
@@ -9979,10 +9985,10 @@
         <v>31</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>344</v>
+        <v>48</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>345</v>
+        <v>33</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>33</v>
@@ -10017,22 +10023,22 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>144</v>
+        <v>306</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>145</v>
+        <v>307</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>146</v>
+        <v>308</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>146</v>
+        <v>309</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>29</v>
@@ -10047,10 +10053,10 @@
         <v>31</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>33</v>
@@ -10085,22 +10091,22 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>29</v>
@@ -10115,10 +10121,10 @@
         <v>31</v>
       </c>
       <c r="N127" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O127" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="O127" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="P127" s="2" t="s">
         <v>33</v>
@@ -10153,22 +10159,22 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>298</v>
+        <v>84</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>349</v>
+        <v>85</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>350</v>
+        <v>86</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>350</v>
+        <v>86</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>29</v>
@@ -10183,10 +10189,10 @@
         <v>31</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>33</v>
@@ -10221,22 +10227,22 @@
         <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>307</v>
+        <v>104</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>308</v>
+        <v>105</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>309</v>
+        <v>105</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>29</v>
@@ -10251,10 +10257,10 @@
         <v>31</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>33</v>
@@ -10289,22 +10295,22 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>29</v>
@@ -10322,13 +10328,13 @@
         <v>33</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>33</v>
+        <v>356</v>
       </c>
       <c r="R130" s="2" t="s">
         <v>33</v>
@@ -10343,7 +10349,7 @@
         <v>34</v>
       </c>
       <c r="V130" s="2" t="s">
-        <v>33</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131">
@@ -10357,22 +10363,22 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>29</v>
@@ -10387,10 +10393,10 @@
         <v>31</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>33</v>
@@ -10402,7 +10408,7 @@
         <v>33</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>33</v>
+        <v>359</v>
       </c>
       <c r="T131" s="2" t="s">
         <v>33</v>
@@ -10425,22 +10431,22 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>29</v>
@@ -10455,16 +10461,16 @@
         <v>31</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>33</v>
+        <v>361</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="Q132" s="2" t="s">
-        <v>355</v>
+        <v>33</v>
       </c>
       <c r="R132" s="2" t="s">
         <v>33</v>
@@ -10479,7 +10485,7 @@
         <v>34</v>
       </c>
       <c r="V132" s="2" t="s">
-        <v>313</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133">
@@ -10493,22 +10499,22 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>29</v>
@@ -10523,10 +10529,10 @@
         <v>31</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>33</v>
+        <v>363</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>33</v>
@@ -10538,7 +10544,7 @@
         <v>33</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>279</v>
+        <v>33</v>
       </c>
       <c r="T133" s="2" t="s">
         <v>33</v>
@@ -10561,22 +10567,22 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>49</v>
+        <v>365</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>50</v>
+        <v>366</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>51</v>
+        <v>367</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>52</v>
+        <v>367</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>29</v>
@@ -10591,13 +10597,13 @@
         <v>31</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>358</v>
+        <v>48</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>359</v>
+        <v>33</v>
       </c>
       <c r="Q134" s="2" t="s">
         <v>33</v>
@@ -10615,142 +10621,6 @@
         <v>34</v>
       </c>
       <c r="V134" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N135" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O135" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="P135" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q135" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R135" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S135" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T135" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U135" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V135" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K136" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L136" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O136" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P136" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q136" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R136" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S136" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T136" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U136" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V136" s="2" t="s">
         <v>33</v>
       </c>
     </row>
